--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3752.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3752.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.246704365017744</v>
+        <v>0.7724602222442627</v>
       </c>
       <c r="B1">
-        <v>2.542019487811833</v>
+        <v>1.030999064445496</v>
       </c>
       <c r="C1">
-        <v>4.372138801166348</v>
+        <v>3.692499876022339</v>
       </c>
       <c r="D1">
-        <v>3.343548351555656</v>
+        <v>2.180202484130859</v>
       </c>
       <c r="E1">
-        <v>1.155036676801245</v>
+        <v>1.093103408813477</v>
       </c>
     </row>
   </sheetData>
